--- a/SeniorProject/static/uploads/example2.xlsx
+++ b/SeniorProject/static/uploads/example2.xlsx
@@ -886,7 +886,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
